--- a/back-end/excelSheets/excelFormats/faculty_service.xlsx
+++ b/back-end/excelSheets/excelFormats/faculty_service.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="54">
   <si>
     <t>slNo</t>
   </si>
@@ -58,6 +58,126 @@
   </si>
   <si>
     <t>be</t>
+  </si>
+  <si>
+    <t>30/09/1996</t>
+  </si>
+  <si>
+    <t>12/08/1997</t>
+  </si>
+  <si>
+    <t>30/09/1997</t>
+  </si>
+  <si>
+    <t>12/08/1998</t>
+  </si>
+  <si>
+    <t>30/09/1998</t>
+  </si>
+  <si>
+    <t>12/08/1999</t>
+  </si>
+  <si>
+    <t>30/09/1999</t>
+  </si>
+  <si>
+    <t>12/08/2000</t>
+  </si>
+  <si>
+    <t>30/09/2000</t>
+  </si>
+  <si>
+    <t>12/08/2001</t>
+  </si>
+  <si>
+    <t>30/09/2001</t>
+  </si>
+  <si>
+    <t>12/08/2002</t>
+  </si>
+  <si>
+    <t>30/09/2002</t>
+  </si>
+  <si>
+    <t>12/08/2003</t>
+  </si>
+  <si>
+    <t>30/09/2003</t>
+  </si>
+  <si>
+    <t>12/08/2004</t>
+  </si>
+  <si>
+    <t>30/09/2004</t>
+  </si>
+  <si>
+    <t>12/08/2005</t>
+  </si>
+  <si>
+    <t>30/09/2005</t>
+  </si>
+  <si>
+    <t>12/08/2006</t>
+  </si>
+  <si>
+    <t>12/03/1995</t>
+  </si>
+  <si>
+    <t>21/12/1995</t>
+  </si>
+  <si>
+    <t>12/03/1996</t>
+  </si>
+  <si>
+    <t>21/12/1996</t>
+  </si>
+  <si>
+    <t>12/03/1997</t>
+  </si>
+  <si>
+    <t>21/12/1997</t>
+  </si>
+  <si>
+    <t>12/03/1998</t>
+  </si>
+  <si>
+    <t>21/12/1998</t>
+  </si>
+  <si>
+    <t>12/03/1999</t>
+  </si>
+  <si>
+    <t>21/12/1999</t>
+  </si>
+  <si>
+    <t>12/03/2000</t>
+  </si>
+  <si>
+    <t>21/12/2000</t>
+  </si>
+  <si>
+    <t>12/03/2001</t>
+  </si>
+  <si>
+    <t>21/12/2001</t>
+  </si>
+  <si>
+    <t>12/03/2002</t>
+  </si>
+  <si>
+    <t>21/12/2002</t>
+  </si>
+  <si>
+    <t>12/03/2003</t>
+  </si>
+  <si>
+    <t>21/12/2003</t>
+  </si>
+  <si>
+    <t>12/03/2004</t>
+  </si>
+  <si>
+    <t>21/12/2004</t>
   </si>
 </sst>
 </file>
@@ -93,9 +213,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -401,13 +522,14 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,13 +539,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -433,7 +555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -443,14 +565,14 @@
       <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
-        <v>34770</v>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E2">
         <v>21</v>
       </c>
-      <c r="F2" s="1">
-        <v>35338</v>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G2">
         <v>60000</v>
@@ -458,8 +580,9 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -469,14 +592,14 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1">
-        <v>35054</v>
+      <c r="D3" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3" s="1">
-        <v>35654</v>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="G3">
         <v>60000</v>
@@ -484,8 +607,9 @@
       <c r="H3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -495,14 +619,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
-        <v>35338</v>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E4">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
-        <v>35970</v>
+      <c r="F4" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="G4">
         <v>60000</v>
@@ -510,8 +634,9 @@
       <c r="H4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -521,14 +646,14 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1">
-        <v>35622</v>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E5">
         <v>18</v>
       </c>
-      <c r="F5" s="1">
-        <v>36286</v>
+      <c r="F5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="G5">
         <v>60000</v>
@@ -536,8 +661,9 @@
       <c r="H5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -547,14 +673,14 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1">
-        <v>35906</v>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E6">
         <v>17</v>
       </c>
-      <c r="F6" s="1">
-        <v>36602</v>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="G6">
         <v>45000</v>
@@ -562,8 +688,9 @@
       <c r="H6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -573,14 +700,14 @@
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="1">
-        <v>36190</v>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E7">
         <v>16</v>
       </c>
-      <c r="F7" s="1">
-        <v>36918</v>
+      <c r="F7" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G7">
         <v>45000</v>
@@ -588,8 +715,9 @@
       <c r="H7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -599,14 +727,14 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1">
-        <v>36474</v>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E8">
         <v>15</v>
       </c>
-      <c r="F8" s="1">
-        <v>37234</v>
+      <c r="F8" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G8">
         <v>45000</v>
@@ -614,8 +742,9 @@
       <c r="H8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -625,14 +754,14 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1">
-        <v>36758</v>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E9">
         <v>15</v>
       </c>
-      <c r="F9" s="1">
-        <v>37550</v>
+      <c r="F9" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G9">
         <v>45000</v>
@@ -640,8 +769,9 @@
       <c r="H9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -651,14 +781,14 @@
       <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
-        <v>37042</v>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E10">
         <v>14</v>
       </c>
-      <c r="F10" s="1">
-        <v>37866</v>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="G10">
         <v>45000</v>
@@ -666,8 +796,9 @@
       <c r="H10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -677,14 +808,14 @@
       <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1">
-        <v>37326</v>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E11">
         <v>13</v>
       </c>
-      <c r="F11" s="1">
-        <v>38182</v>
+      <c r="F11" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="G11">
         <v>45000</v>
@@ -692,8 +823,9 @@
       <c r="H11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -703,14 +835,14 @@
       <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1">
-        <v>37610</v>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E12">
         <v>12</v>
       </c>
-      <c r="F12" s="1">
-        <v>38498</v>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G12">
         <v>45000</v>
@@ -718,8 +850,9 @@
       <c r="H12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -729,14 +862,14 @@
       <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1">
-        <v>37894</v>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E13">
         <v>12</v>
       </c>
-      <c r="F13" s="1">
-        <v>38814</v>
+      <c r="F13" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G13">
         <v>45000</v>
@@ -744,8 +877,9 @@
       <c r="H13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -755,14 +889,14 @@
       <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1">
-        <v>38178</v>
+      <c r="D14" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E14">
         <v>11</v>
       </c>
-      <c r="F14" s="1">
-        <v>39130</v>
+      <c r="F14" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G14">
         <v>45000</v>
@@ -770,8 +904,9 @@
       <c r="H14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -781,14 +916,14 @@
       <c r="C15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="1">
-        <v>38462</v>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E15">
         <v>10</v>
       </c>
-      <c r="F15" s="1">
-        <v>39446</v>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="G15">
         <v>30000</v>
@@ -796,8 +931,9 @@
       <c r="H15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -807,14 +943,14 @@
       <c r="C16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1">
-        <v>38746</v>
+      <c r="D16" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E16">
         <v>9</v>
       </c>
-      <c r="F16" s="1">
-        <v>39762</v>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G16">
         <v>30000</v>
@@ -822,8 +958,9 @@
       <c r="H16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>16</v>
       </c>
@@ -833,14 +970,14 @@
       <c r="C17" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="1">
-        <v>39030</v>
+      <c r="D17" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E17">
         <v>9</v>
       </c>
-      <c r="F17" s="1">
-        <v>40078</v>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G17">
         <v>30000</v>
@@ -848,8 +985,9 @@
       <c r="H17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>17</v>
       </c>
@@ -859,14 +997,14 @@
       <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
-        <v>39314</v>
+      <c r="D18" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E18">
         <v>8</v>
       </c>
-      <c r="F18" s="1">
-        <v>40394</v>
+      <c r="F18" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="G18">
         <v>30000</v>
@@ -874,8 +1012,9 @@
       <c r="H18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>18</v>
       </c>
@@ -885,14 +1024,14 @@
       <c r="C19" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="1">
-        <v>39598</v>
+      <c r="D19" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E19">
         <v>7</v>
       </c>
-      <c r="F19" s="1">
-        <v>40710</v>
+      <c r="F19" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="G19">
         <v>30000</v>
@@ -900,8 +1039,9 @@
       <c r="H19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>19</v>
       </c>
@@ -911,14 +1051,14 @@
       <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1">
-        <v>39882</v>
+      <c r="D20" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
-      <c r="F20" s="1">
-        <v>41026</v>
+      <c r="F20" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G20">
         <v>30000</v>
@@ -926,8 +1066,9 @@
       <c r="H20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>20</v>
       </c>
@@ -937,14 +1078,14 @@
       <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="1">
-        <v>40166</v>
+      <c r="D21" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
-      <c r="F21" s="1">
-        <v>41342</v>
+      <c r="F21" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="G21">
         <v>30000</v>
@@ -952,6 +1093,7 @@
       <c r="H21">
         <v>20</v>
       </c>
+      <c r="J21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
